--- a/posts/2024-05-26-taller/calendario.xlsx
+++ b/posts/2024-05-26-taller/calendario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\ciencia-reproducible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 Versiones\ciencia-reproducible\posts\2024-05-26-taller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C90783F-7382-4C33-B32E-5651A5E6D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE82616-9C74-488A-83FD-C3E61EE21DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95FACCA9-619D-4D99-B07E-B9C38BD0A120}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{95FACCA9-619D-4D99-B07E-B9C38BD0A120}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,10 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2A763-443F-4207-A504-E3D395074DBF}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,69 +488,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45454</v>
+        <v>45461</v>
       </c>
       <c r="C2" s="3">
-        <v>45456</v>
+        <v>45463</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="C3" s="3">
-        <v>45463</v>
+        <v>45470</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45468</v>
+        <v>45476</v>
       </c>
       <c r="C4" s="3">
-        <v>45470</v>
+        <v>45477</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="C5" s="3">
-        <v>45477</v>
+        <v>45483</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45482</v>
+        <v>45510</v>
       </c>
       <c r="C6" s="3">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45510</v>
-      </c>
-      <c r="C7" s="3">
         <v>45512</v>
       </c>
     </row>

--- a/posts/2024-05-26-taller/calendario.xlsx
+++ b/posts/2024-05-26-taller/calendario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 Versiones\ciencia-reproducible\posts\2024-05-26-taller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\ciencia-reproducible\posts\2024-05-26-taller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE82616-9C74-488A-83FD-C3E61EE21DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7651C219-C0CF-4511-BE81-0C6A3917D27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{95FACCA9-619D-4D99-B07E-B9C38BD0A120}"/>
+    <workbookView xWindow="5124" yWindow="3492" windowWidth="17280" windowHeight="9468" xr2:uid="{95FACCA9-619D-4D99-B07E-B9C38BD0A120}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -464,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2A763-443F-4207-A504-E3D395074DBF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -521,25 +521,34 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45478</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>45482</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>45483</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>45510</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>45512</v>
       </c>
     </row>
